--- a/data/FLDOE/School Reportcard - Inexperienced Teachers.xlsx
+++ b/data/FLDOE/School Reportcard - Inexperienced Teachers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41d025303327e0f0/Documents/GitHub/hillsborough_grades/data/FLDOE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCFA536-4DB9-4A7A-A33B-A501729BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{DBCFA536-4DB9-4A7A-A33B-A501729BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C939D8C-A751-477E-BB39-E1DFCE1E5A6A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F5DF7167-33E2-4B7E-9F6C-30FFD989D8AF}"/>
   </bookViews>
   <sheets>
     <sheet name="DF Schools" sheetId="1" r:id="rId1"/>
     <sheet name="Hillsborough" sheetId="2" r:id="rId2"/>
+    <sheet name="Source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>School Name</t>
   </si>
@@ -268,6 +269,15 @@
   </si>
   <si>
     <t>Non-Title I and Low Minority Schools</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>https://edudata.fldoe.org/</t>
   </si>
 </sst>
 </file>
@@ -623,11 +633,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA554FD-6E1F-49CC-8E9D-B65A41FAA933}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -653,6 +666,9 @@
       <c r="C2">
         <v>0.33300000000000002</v>
       </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -664,6 +680,9 @@
       <c r="C3">
         <v>0.48</v>
       </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -672,6 +691,12 @@
       <c r="B4">
         <v>128</v>
       </c>
+      <c r="C4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -680,6 +705,12 @@
       <c r="B5">
         <v>282</v>
       </c>
+      <c r="C5">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -688,6 +719,12 @@
       <c r="B6">
         <v>441</v>
       </c>
+      <c r="C6">
+        <v>0.115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -696,6 +733,12 @@
       <c r="B7">
         <v>641</v>
       </c>
+      <c r="C7">
+        <v>0.219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -704,6 +747,12 @@
       <c r="B8">
         <v>962</v>
       </c>
+      <c r="C8">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -712,6 +761,12 @@
       <c r="B9">
         <v>1361</v>
       </c>
+      <c r="C9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -720,6 +775,9 @@
       <c r="B10">
         <v>1481</v>
       </c>
+      <c r="C10">
+        <v>0.379</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -728,6 +786,12 @@
       <c r="B11">
         <v>1761</v>
       </c>
+      <c r="C11">
+        <v>0.19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -736,6 +800,9 @@
       <c r="B12">
         <v>1951</v>
       </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -744,6 +811,12 @@
       <c r="B13">
         <v>2041</v>
       </c>
+      <c r="C13">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -752,6 +825,12 @@
       <c r="B14">
         <v>2201</v>
       </c>
+      <c r="C14">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -759,6 +838,12 @@
       </c>
       <c r="B15">
         <v>2261</v>
+      </c>
+      <c r="C15">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,4 +1591,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E063E3-D156-415D-A47E-D554352EC55C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/FLDOE/School Reportcard - Inexperienced Teachers.xlsx
+++ b/data/FLDOE/School Reportcard - Inexperienced Teachers.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41d025303327e0f0/Documents/GitHub/hillsborough_grades/data/FLDOE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{DBCFA536-4DB9-4A7A-A33B-A501729BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C939D8C-A751-477E-BB39-E1DFCE1E5A6A}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{DBCFA536-4DB9-4A7A-A33B-A501729BEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486C88B1-4F51-4952-939C-92B30E727148}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F5DF7167-33E2-4B7E-9F6C-30FFD989D8AF}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11808" windowHeight="12336" xr2:uid="{F5DF7167-33E2-4B7E-9F6C-30FFD989D8AF}"/>
   </bookViews>
   <sheets>
     <sheet name="DF Schools" sheetId="1" r:id="rId1"/>
     <sheet name="Hillsborough" sheetId="2" r:id="rId2"/>
-    <sheet name="Source" sheetId="3" r:id="rId3"/>
+    <sheet name="State" sheetId="4" r:id="rId3"/>
+    <sheet name="Source" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DF Schools'!$A$1:$D$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
   <si>
     <t>School Name</t>
   </si>
@@ -278,6 +282,9 @@
   </si>
   <si>
     <t>https://edudata.fldoe.org/</t>
+  </si>
+  <si>
+    <t>Florida Report Card</t>
   </si>
 </sst>
 </file>
@@ -332,6 +339,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA554FD-6E1F-49CC-8E9D-B65A41FAA933}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,41 +669,38 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>0.33300000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>1951</v>
       </c>
       <c r="C3">
-        <v>0.48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>0.55600000000000005</v>
+        <v>0.48</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
@@ -700,27 +708,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>282</v>
+        <v>1324</v>
       </c>
       <c r="C5">
-        <v>0.46200000000000002</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>441</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>0.115</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D6" t="s">
         <v>77</v>
@@ -728,13 +736,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>641</v>
+        <v>282</v>
       </c>
       <c r="C7">
-        <v>0.219</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D7" t="s">
         <v>77</v>
@@ -742,13 +750,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>962</v>
+        <v>2362</v>
       </c>
       <c r="C8">
-        <v>0.30299999999999999</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
@@ -756,13 +764,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>1361</v>
+        <v>4961</v>
       </c>
       <c r="C9">
-        <v>0.25800000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="D9" t="s">
         <v>77</v>
@@ -770,24 +778,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>1481</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.379</v>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>1761</v>
+        <v>4561</v>
       </c>
       <c r="C11">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
@@ -795,52 +806,52 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>1951</v>
+        <v>3761</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2041</v>
+        <v>1481</v>
       </c>
       <c r="C13">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>2201</v>
+        <v>4747</v>
       </c>
       <c r="C14">
-        <v>0.35099999999999998</v>
+        <v>0.379</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>2261</v>
+        <v>3201</v>
       </c>
       <c r="C15">
-        <v>0.16700000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
@@ -848,160 +859,276 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2201</v>
+      </c>
+      <c r="C16">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3281</v>
+      </c>
+      <c r="C17">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>2721</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C18">
+        <v>0.34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>3841</v>
+      </c>
+      <c r="C20">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1482</v>
+      </c>
+      <c r="C21">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>4921</v>
+      </c>
+      <c r="C22">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>962</v>
+      </c>
+      <c r="C23">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>3951</v>
+      </c>
+      <c r="C24">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>4201</v>
+      </c>
+      <c r="C25">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>3521</v>
+      </c>
+      <c r="C26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1361</v>
+      </c>
+      <c r="C27">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B28">
         <v>3041</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>3201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>3761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>4747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C28">
+        <v>0.255</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>2041</v>
+      </c>
+      <c r="C29">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>641</v>
+      </c>
+      <c r="C30">
+        <v>0.219</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1761</v>
+      </c>
+      <c r="C31">
+        <v>0.19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>2261</v>
+      </c>
+      <c r="C32">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B33">
         <v>4841</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>4921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>4961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>2362</v>
-      </c>
       <c r="C33">
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>4201</v>
+        <v>441</v>
+      </c>
+      <c r="C34">
+        <v>0.115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D34" xr:uid="{7EA554FD-6E1F-49CC-8E9D-B65A41FAA933}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D34">
+      <sortCondition descending="1" ref="C1:C34"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1012,7 +1139,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,6 +1721,592 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1B4D33-7E46-4847-A70B-B187C5D6B584}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50598</v>
+      </c>
+      <c r="D4" s="1">
+        <v>113484</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3236</v>
+      </c>
+      <c r="F4" s="1">
+        <v>167318</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28910</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56780</v>
+      </c>
+      <c r="E5">
+        <v>991</v>
+      </c>
+      <c r="F5" s="1">
+        <v>86681</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21688</v>
+      </c>
+      <c r="D6" s="1">
+        <v>56704</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2245</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80637</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>26667</v>
+      </c>
+      <c r="E7">
+        <v>575</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41237</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25540</v>
+      </c>
+      <c r="D8" s="1">
+        <v>58138</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1019</v>
+      </c>
+      <c r="F8" s="1">
+        <v>84697</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11063</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28679</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1642</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41384</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11598</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22942</v>
+      </c>
+      <c r="E10">
+        <v>451</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34991</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1">
+        <v>27715</v>
+      </c>
+      <c r="D11" s="1">
+        <v>59698</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1447</v>
+      </c>
+      <c r="F11" s="1">
+        <v>88860</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11285</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30844</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1338</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43467</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13356</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25152</v>
+      </c>
+      <c r="E13">
+        <v>546</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39054</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15098</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30620</v>
+      </c>
+      <c r="E14">
+        <v>438</v>
+      </c>
+      <c r="F14" s="1">
+        <v>46156</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>456</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1471</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>639</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1515</v>
+      </c>
+      <c r="E16">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2183</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10442</v>
+      </c>
+      <c r="D17" s="1">
+        <v>27518</v>
+      </c>
+      <c r="E17">
+        <v>581</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38541</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10607</v>
+      </c>
+      <c r="D18" s="1">
+        <v>27671</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1635</v>
+      </c>
+      <c r="F18" s="1">
+        <v>39913</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9627</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19001</v>
+      </c>
+      <c r="E19">
+        <v>320</v>
+      </c>
+      <c r="F19" s="1">
+        <v>28948</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15871</v>
+      </c>
+      <c r="D20" s="1">
+        <v>29716</v>
+      </c>
+      <c r="E20">
+        <v>494</v>
+      </c>
+      <c r="F20" s="1">
+        <v>46081</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3412</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8063</v>
+      </c>
+      <c r="E21">
+        <v>177</v>
+      </c>
+      <c r="F21" s="1">
+        <v>11652</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1971</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3941</v>
+      </c>
+      <c r="E22">
+        <v>131</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6043</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11844</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29982</v>
+      </c>
+      <c r="E23">
+        <v>953</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42779</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7873</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22781</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1161</v>
+      </c>
+      <c r="F24" s="1">
+        <v>31815</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E063E3-D156-415D-A47E-D554352EC55C}">
   <dimension ref="A1"/>
   <sheetViews>
